--- a/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T17:33:57+00:00</t>
+    <t>2024-07-07T12:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-07T12:23:39+00:00</t>
+    <t>2024-07-09T13:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T13:13:37+00:00</t>
+    <t>2024-07-09T13:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T13:19:46+00:00</t>
+    <t>2024-07-09T13:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T13:24:22+00:00</t>
+    <t>2024-07-09T13:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
